--- a/VersionRecords/Version 5.2.11.2 20170219/版本Bug和特性计划及评审表v5.2.11.2_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.11.2 20170219/版本Bug和特性计划及评审表v5.2.11.2_马丁组.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -310,6 +310,20 @@
   </si>
   <si>
     <t>TOPT-865</t>
+  </si>
+  <si>
+    <t>熏衣</t>
+    <rPh sb="0" eb="1">
+      <t>xun'yi</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -328,6 +342,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -335,26 +350,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -362,12 +378,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -375,42 +393,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -418,12 +439,14 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -431,22 +454,24 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -918,6 +943,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,9 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1321,15 +1346,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="47" customWidth="1"/>
     <col min="2" max="3" width="9.83203125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="48" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="47" customWidth="1"/>
     <col min="6" max="6" width="29.1640625" style="47" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="47" customWidth="1"/>
@@ -1462,11 +1487,17 @@
       <c r="N2" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="53"/>
+      <c r="O2" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="P2" s="62"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="86" t="s">
+      <c r="Q2" s="54">
+        <v>42785</v>
+      </c>
+      <c r="R2" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="77" t="s">
         <v>83</v>
       </c>
       <c r="T2" s="67"/>
@@ -1516,11 +1547,17 @@
       <c r="N3" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="53"/>
+      <c r="O3" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="P3" s="62"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="86" t="s">
+      <c r="Q3" s="54">
+        <v>42785</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="77" t="s">
         <v>83</v>
       </c>
       <c r="T3" s="67"/>
@@ -1570,11 +1607,17 @@
       <c r="N4" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="53"/>
+      <c r="O4" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="P4" s="62"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="86" t="s">
+      <c r="Q4" s="54">
+        <v>42785</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" s="77" t="s">
         <v>83</v>
       </c>
       <c r="T4" s="59"/>
@@ -1624,11 +1667,17 @@
       <c r="N5" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="53"/>
+      <c r="O5" s="53" t="s">
+        <v>85</v>
+      </c>
       <c r="P5" s="62"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="86" t="s">
+      <c r="Q5" s="54">
+        <v>42785</v>
+      </c>
+      <c r="R5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" s="77" t="s">
         <v>84</v>
       </c>
       <c r="T5" s="59"/>
@@ -5793,19 +5842,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5843,8 +5892,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5856,8 +5905,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5869,8 +5918,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5882,8 +5931,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="81"/>
-      <c r="B6" s="81"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5895,8 +5944,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="81"/>
-      <c r="B7" s="81"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5908,8 +5957,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5921,8 +5970,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5934,8 +5983,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5996,36 +6045,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6310,36 +6359,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6624,36 +6673,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6940,36 +6989,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="84"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
